--- a/training_results.xlsx
+++ b/training_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,10 +446,35 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>validation_score</t>
+          <t>validation_loss</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>top3_acc</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>bleu4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>exact_match</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>edit_distance</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>teacher_forcing_probability</t>
         </is>
@@ -460,12 +485,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.396055323264796</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.02731580145620975</v>
-      </c>
-      <c r="D2" t="n">
+        <v>2.400354847253704</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>tensor(5.3651, device='cuda:0')</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>tensor(22.3396, device='cuda:0')</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0.01012246656377556</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1138630517598793</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0215087717397635</v>
+      </c>
+      <c r="I2" t="n">
         <v>1</v>
       </c>
     </row>
